--- a/source/2025.09.22 LH 25년3차_청년매입임대.xlsx
+++ b/source/2025.09.22 LH 25년3차_청년매입임대.xlsx
@@ -1717,7 +1717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.5" zeroHeight="1"/>
